--- a/health_check_3.xlsx
+++ b/health_check_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allianzms-my.sharepoint.com/personal/yelin_yun_allianz_de/Documents/AGN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{D76F1791-A779-4F3A-9495-5BBD193454DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6485A1A5-0692-4518-A25E-8518EE71BACE}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{D76F1791-A779-4F3A-9495-5BBD193454DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC72EDBB-4E8C-4834-9BB2-3782CB977614}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" firstSheet="5" activeTab="9" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Remote Access" sheetId="12" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Mission</t>
   </si>
   <si>
-    <t>Pawns or Playyers</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Teamwork</t>
+  </si>
+  <si>
+    <t>Pawns or Players</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D6A445-298A-44A8-A55D-3FCB8F76081C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F22:G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F144539-D9DE-4F03-AC35-33C0645E5D79}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -815,7 +815,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1931,7 +1931,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/health_check_3.xlsx
+++ b/health_check_3.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allianzms-my.sharepoint.com/personal/yelin_yun_allianz_de/Documents/AGN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{D76F1791-A779-4F3A-9495-5BBD193454DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC72EDBB-4E8C-4834-9BB2-3782CB977614}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{D76F1791-A779-4F3A-9495-5BBD193454DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F2A8EEB-6246-477D-B529-0BE272632576}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" firstSheet="5" activeTab="9" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Remote Access" sheetId="12" r:id="rId1"/>
     <sheet name="Internet Access" sheetId="13" r:id="rId2"/>
-    <sheet name="LAN" sheetId="7" r:id="rId3"/>
-    <sheet name="WANCNC" sheetId="8" r:id="rId4"/>
-    <sheet name="Cloud Network" sheetId="9" r:id="rId5"/>
+    <sheet name="LAN WIFI" sheetId="7" r:id="rId3"/>
+    <sheet name="WAN CNC" sheetId="8" r:id="rId4"/>
+    <sheet name="AGN Shared" sheetId="9" r:id="rId5"/>
     <sheet name="DC Network" sheetId="10" r:id="rId6"/>
     <sheet name="Telephony" sheetId="1" r:id="rId7"/>
     <sheet name="Conferencing" sheetId="2" r:id="rId8"/>
@@ -446,12 +446,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -479,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -628,16 +628,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F144539-D9DE-4F03-AC35-33C0645E5D79}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -735,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -763,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -777,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -818,12 +818,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -977,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1000,16 +1000,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181FF690-BBD4-4141-9CCC-CB1EF434110B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1190,12 +1190,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1373,15 +1373,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1562,12 +1562,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1748,12 +1748,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1934,12 +1934,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2120,12 +2120,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>

--- a/health_check_3.xlsx
+++ b/health_check_3.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allianzms-my.sharepoint.com/personal/yelin_yun_allianz_de/Documents/AGN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allianzms-my.sharepoint.com/personal/yelin_yun_allianz_de/Documents/DataScientest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{D76F1791-A779-4F3A-9495-5BBD193454DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F2A8EEB-6246-477D-B529-0BE272632576}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53077238-A17A-45BA-B8FA-EC2E4D8E6E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Remote Access" sheetId="12" r:id="rId1"/>
-    <sheet name="Internet Access" sheetId="13" r:id="rId2"/>
-    <sheet name="LAN WIFI" sheetId="7" r:id="rId3"/>
-    <sheet name="WAN CNC" sheetId="8" r:id="rId4"/>
-    <sheet name="AGN Shared" sheetId="9" r:id="rId5"/>
-    <sheet name="DC Network" sheetId="10" r:id="rId6"/>
-    <sheet name="Telephony" sheetId="1" r:id="rId7"/>
-    <sheet name="Conferencing" sheetId="2" r:id="rId8"/>
-    <sheet name="Firewall" sheetId="5" r:id="rId9"/>
-    <sheet name="Automation" sheetId="6" r:id="rId10"/>
+    <sheet name="T" sheetId="12" r:id="rId1"/>
+    <sheet name="C" sheetId="13" r:id="rId2"/>
+    <sheet name="RA" sheetId="7" r:id="rId3"/>
+    <sheet name="IA" sheetId="8" r:id="rId4"/>
+    <sheet name="LW" sheetId="9" r:id="rId5"/>
+    <sheet name="WC" sheetId="10" r:id="rId6"/>
+    <sheet name="DC" sheetId="1" r:id="rId7"/>
+    <sheet name="AS" sheetId="2" r:id="rId8"/>
+    <sheet name="F" sheetId="5" r:id="rId9"/>
+    <sheet name="A" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -621,6 +621,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -628,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F144539-D9DE-4F03-AC35-33C0645E5D79}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -807,6 +808,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -993,6 +995,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1000,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181FF690-BBD4-4141-9CCC-CB1EF434110B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -1179,6 +1182,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1365,6 +1369,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1551,6 +1556,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1737,6 +1743,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1923,6 +1930,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2109,6 +2117,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2295,5 +2304,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>